--- a/Курс 2/Основы Data Science/Лабораторные/02. Структура и описание данных. Описательные характеристики/gameandgrade.xlsx
+++ b/Курс 2/Основы Data Science/Лабораторные/02. Структура и описание данных. Описательные характеристики/gameandgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olesteep/Documents/Study/Курс 2/Основы Data Science/Лабораторные/02. Структура и описание данных. Описательные характеристики/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C529DC5-9734-5B4C-809E-56F7F0D76396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A675A71-78D3-4344-8F3A-8637F93A7C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17360" yWindow="760" windowWidth="17080" windowHeight="21440" activeTab="3" xr2:uid="{94C2AD48-8C41-6147-84AE-58A60A9548F9}"/>
   </bookViews>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
-    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -262,22 +262,22 @@
     <t>низкое образование - 0, 1, 2</t>
   </si>
   <si>
-    <t>высокое образование - 3, 4, 5</t>
-  </si>
-  <si>
     <t>часто играют - 3, 4, 5</t>
   </si>
   <si>
     <t>мало играют - 0, 1, 2</t>
   </si>
   <si>
-    <t>Двухвыборочный t-тест с одинаковыми дисперсиями (Для матери)</t>
+    <t>п</t>
   </si>
   <si>
-    <t>Двухвыборочный t-тест с одинаковыми дисперсиями (Для отца)</t>
+    <t>высокое образование - 5, 6</t>
   </si>
   <si>
-    <t>п</t>
+    <t>Двухвыборочный t-тест с одинаковыми дисперсиями (для матери)</t>
+  </si>
+  <si>
+    <t>Двухвыборочный t-тест с одинаковыми дисперсиями (для отца)</t>
   </si>
 </sst>
 </file>
@@ -878,12 +878,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,7 +932,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -944,7 +944,7 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -32689,396 +32689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B3673BB-A2E0-9945-A967-74D58F6F93D4}" name="Сводная таблица10" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B15:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Sex" fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A4080B6-CD9C-FB4D-BF75-FB8D52BE33C3}" name="Сводная таблица9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="24">
-  <location ref="B77:C85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю School Code" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="23" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{547671A9-AF8C-FA4E-857C-C95CFB12C3D8}" name="Сводная таблица14" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="22">
-  <location ref="B90:C97" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Playing Years" fld="7" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="21" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74925334-BBB6-8E4D-A8C4-1418A3312DE5}" name="Сводная таблица13" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="42">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74925334-BBB6-8E4D-A8C4-1418A3312DE5}" name="Сводная таблица13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="42">
   <location ref="B25:C33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33150,10 +32761,10 @@
     <dataField name="Количество по полю Mother Education" fld="4" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33195,8 +32806,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4055949-EA7B-2D47-839F-58ABF0D24DC6}" name="Сводная таблица8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="47">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4055949-EA7B-2D47-839F-58ABF0D24DC6}" name="Сводная таблица8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="47">
   <location ref="B51:C58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33275,10 +32886,10 @@
     <dataField name="Количество по полю Playing Hours" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33320,8 +32931,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20128A8E-8F8D-1F4B-B63D-08C20AED7F0D}" name="Сводная таблица12" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20128A8E-8F8D-1F4B-B63D-08C20AED7F0D}" name="Сводная таблица12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B101:C112" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -33445,8 +33056,274 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB5542E4-160E-E945-9B5A-ED309DB05DB7}" name="Сводная таблица7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="25">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B3673BB-A2E0-9945-A967-74D58F6F93D4}" name="Сводная таблица10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B15:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Sex" fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A4080B6-CD9C-FB4D-BF75-FB8D52BE33C3}" name="Сводная таблица9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="24">
+  <location ref="B77:C85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю School Code" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB5542E4-160E-E945-9B5A-ED309DB05DB7}" name="Сводная таблица7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="25">
   <location ref="B64:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33566,8 +33443,131 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{547671A9-AF8C-FA4E-857C-C95CFB12C3D8}" name="Сводная таблица14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="22">
+  <location ref="B90:C97" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Playing Years" fld="7" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96E7D066-6BCD-C74A-A456-629E58FD8256}" name="Сводная таблица11" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96E7D066-6BCD-C74A-A456-629E58FD8256}" name="Сводная таблица11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="23">
   <location ref="B38:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33987,8 +33987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30EAD57-2722-2640-9045-129DE337E71B}">
   <dimension ref="A1:U773"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" zoomScale="75" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="J415" sqref="A1:J415"/>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:J771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58711,41 +58711,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75069B8F-3AE3-DD4F-B9E5-3A5847B7AA82}">
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A291" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A313" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -70155,7 +70155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A424681-3FE9-694E-A0B1-02F687C4B387}">
   <dimension ref="B2:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B21" zoomScale="125" workbookViewId="0">
       <selection activeCell="C108" sqref="C102:C108"/>
     </sheetView>
   </sheetViews>
@@ -70863,8 +70863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AF8D23-ABA4-1A44-B54C-CBEFB7E9A58E}">
   <dimension ref="A2:O772"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70892,16 +70892,16 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="17"/>
     </row>
@@ -70910,7 +70910,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O7" s="17"/>
     </row>
@@ -70918,129 +70918,129 @@
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>43</v>
       </c>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="20">
-        <v>1.8160919540229885</v>
-      </c>
-      <c r="C10" s="20">
-        <v>3.9516728624535316</v>
+      <c r="B10" s="21">
+        <v>71.281954022988501</v>
+      </c>
+      <c r="C10" s="21">
+        <v>87.568181818181813</v>
       </c>
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="20">
-        <v>0.15183106121357898</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.73273040004438816</v>
+      <c r="B11" s="21">
+        <v>254.01051823041999</v>
+      </c>
+      <c r="C11" s="21">
+        <v>275.52989510489505</v>
       </c>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="21">
         <v>87</v>
       </c>
-      <c r="C12" s="20">
-        <v>269</v>
+      <c r="C12" s="21">
+        <v>66</v>
       </c>
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="20">
-        <v>0.59160796179735542</v>
-      </c>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21">
+        <v>263.27382615651851</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="20">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="20">
-        <v>354</v>
-      </c>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21">
+        <v>151</v>
+      </c>
+      <c r="C15" s="21"/>
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="20">
-        <v>-22.511777725256401</v>
-      </c>
-      <c r="C16" s="20"/>
+      <c r="B16" s="21">
+        <v>-6.1489723632650639</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="20">
-        <v>1.3738570005292101E-70</v>
-      </c>
-      <c r="C17" s="20"/>
+      <c r="B17" s="21">
+        <v>3.327541620635482E-9</v>
+      </c>
+      <c r="C17" s="21"/>
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="20">
-        <v>1.6491694147322193</v>
-      </c>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21">
+        <v>1.6550073865802402</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="20">
-        <v>2.7477140010584202E-70</v>
-      </c>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21">
+        <v>6.6550832412709639E-9</v>
+      </c>
+      <c r="C19" s="21"/>
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="21">
-        <v>1.9666878964647558</v>
-      </c>
-      <c r="C20" s="21"/>
+      <c r="B20" s="22">
+        <v>1.9757989238179368</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -71050,7 +71050,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="17"/>
     </row>
@@ -71058,132 +71058,132 @@
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="20">
-        <v>1.8955223880597014</v>
-      </c>
-      <c r="C25" s="20">
-        <v>4.1141868512110724</v>
+      <c r="B25" s="21">
+        <v>72.546716417910446</v>
+      </c>
+      <c r="C25" s="21">
+        <v>84.955555555555549</v>
       </c>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="20">
-        <v>0.15558570782451397</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0.81677720107650964</v>
+      <c r="B26" s="21">
+        <v>263.24067693351412</v>
+      </c>
+      <c r="C26" s="21">
+        <v>275.37440699126097</v>
       </c>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="21">
         <v>67</v>
       </c>
-      <c r="C27" s="20">
-        <v>289</v>
+      <c r="C27" s="21">
+        <v>90</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="20">
-        <v>0.69350421080918834</v>
-      </c>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21">
+        <v>270.20778645054293</v>
+      </c>
+      <c r="C28" s="21"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="20">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="20">
-        <v>354</v>
-      </c>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21">
+        <v>155</v>
+      </c>
+      <c r="C30" s="21"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="20">
-        <v>-19.648454694398335</v>
-      </c>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21">
+        <v>-4.6783321738193848</v>
+      </c>
+      <c r="C31" s="21"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="20">
-        <v>6.0178623308766174E-59</v>
-      </c>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21">
+        <v>3.1284861316859455E-6</v>
+      </c>
+      <c r="C32" s="21"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="20">
-        <v>1.6491694147322193</v>
-      </c>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21">
+        <v>1.6547437739197817</v>
+      </c>
+      <c r="C33" s="21"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="20">
-        <v>1.2035724661753235E-58</v>
-      </c>
-      <c r="C34" s="20"/>
+      <c r="B34" s="21">
+        <v>6.2569722633718909E-6</v>
+      </c>
+      <c r="C34" s="21"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="21">
-        <v>1.9666878964647558</v>
-      </c>
-      <c r="C35" s="21"/>
+      <c r="B35" s="22">
+        <v>1.9753871310551163</v>
+      </c>
+      <c r="C35" s="22"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -71389,7 +71389,7 @@
         <v>2.422857142857143</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O63" s="17"/>
     </row>

--- a/Курс 2/Основы Data Science/Лабораторные/02. Структура и описание данных. Описательные характеристики/gameandgrade.xlsx
+++ b/Курс 2/Основы Data Science/Лабораторные/02. Структура и описание данных. Описательные характеристики/gameandgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olesteep/Documents/Study/Курс 2/Основы Data Science/Лабораторные/02. Структура и описание данных. Описательные характеристики/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A675A71-78D3-4344-8F3A-8637F93A7C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69CB552-FC39-2D4E-96E7-B2F32E6D7FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17360" yWindow="760" windowWidth="17080" windowHeight="21440" activeTab="3" xr2:uid="{94C2AD48-8C41-6147-84AE-58A60A9548F9}"/>
   </bookViews>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Sex</t>
   </si>
@@ -188,96 +188,6 @@
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>Двухвыборочный t-тест с одинаковыми дисперсиями</t>
-  </si>
-  <si>
-    <t>Переменная 1</t>
-  </si>
-  <si>
-    <t>Переменная 2</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>Дисперсия</t>
-  </si>
-  <si>
-    <t>Наблюдения</t>
-  </si>
-  <si>
-    <t>Объединенная дисперсия</t>
-  </si>
-  <si>
-    <t>Гипотетическая разность средних</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>t-статистика</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) одностороннее</t>
-  </si>
-  <si>
-    <t>t критическое одностороннее</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) двухстороннее</t>
-  </si>
-  <si>
-    <t>t критическое двухстороннее</t>
-  </si>
-  <si>
-    <t>Гипотеза 2</t>
-  </si>
-  <si>
-    <t>Гипотеза 3</t>
-  </si>
-  <si>
-    <t>Гипотеза 1</t>
-  </si>
-  <si>
-    <t>Выбраны группы:</t>
-  </si>
-  <si>
-    <t>малый стаж - 0, 1</t>
-  </si>
-  <si>
-    <t>большой стаж - 2, 3, 4</t>
-  </si>
-  <si>
-    <t>бедные - 0, 1</t>
-  </si>
-  <si>
-    <t>обеспеченные - 3, 4</t>
-  </si>
-  <si>
-    <t>Гипотеза 4</t>
-  </si>
-  <si>
-    <t>низкое образование - 0, 1, 2</t>
-  </si>
-  <si>
-    <t>часто играют - 3, 4, 5</t>
-  </si>
-  <si>
-    <t>мало играют - 0, 1, 2</t>
-  </si>
-  <si>
-    <t>п</t>
-  </si>
-  <si>
-    <t>высокое образование - 5, 6</t>
-  </si>
-  <si>
-    <t>Двухвыборочный t-тест с одинаковыми дисперсиями (для матери)</t>
-  </si>
-  <si>
-    <t>Двухвыборочный t-тест с одинаковыми дисперсиями (для отца)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,18 +550,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -781,26 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -847,7 +731,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -864,26 +748,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,7 +807,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -944,7 +819,7 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -32689,7 +32564,394 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74925334-BBB6-8E4D-A8C4-1418A3312DE5}" name="Сводная таблица13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="42">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B3673BB-A2E0-9945-A967-74D58F6F93D4}" name="Сводная таблица10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B15:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Sex" fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A4080B6-CD9C-FB4D-BF75-FB8D52BE33C3}" name="Сводная таблица9" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="24">
+  <location ref="B77:C85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю School Code" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB5542E4-160E-E945-9B5A-ED309DB05DB7}" name="Сводная таблица7" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="25">
+  <location ref="B64:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Parent Revenue" fld="6" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74925334-BBB6-8E4D-A8C4-1418A3312DE5}" name="Сводная таблица13" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="42">
   <location ref="B25:C33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -32761,10 +33023,10 @@
     <dataField name="Количество по полю Mother Education" fld="4" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32806,8 +33068,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4055949-EA7B-2D47-839F-58ABF0D24DC6}" name="Сводная таблица8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="47">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4055949-EA7B-2D47-839F-58ABF0D24DC6}" name="Сводная таблица8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="47">
   <location ref="B51:C58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -32886,10 +33148,10 @@
     <dataField name="Количество по полю Playing Hours" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32931,8 +33193,131 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20128A8E-8F8D-1F4B-B63D-08C20AED7F0D}" name="Сводная таблица12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{547671A9-AF8C-FA4E-857C-C95CFB12C3D8}" name="Сводная таблица14" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="22">
+  <location ref="B90:C97" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Playing Years" fld="7" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20128A8E-8F8D-1F4B-B63D-08C20AED7F0D}" name="Сводная таблица12" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B101:C112" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -33056,518 +33441,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B3673BB-A2E0-9945-A967-74D58F6F93D4}" name="Сводная таблица10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B15:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Sex" fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A4080B6-CD9C-FB4D-BF75-FB8D52BE33C3}" name="Сводная таблица9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="24">
-  <location ref="B77:C85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю School Code" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="23" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB5542E4-160E-E945-9B5A-ED309DB05DB7}" name="Сводная таблица7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="25">
-  <location ref="B64:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Parent Revenue" fld="6" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="24" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{547671A9-AF8C-FA4E-857C-C95CFB12C3D8}" name="Сводная таблица14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="22">
-  <location ref="B90:C97" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Playing Years" fld="7" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="21" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96E7D066-6BCD-C74A-A456-629E58FD8256}" name="Сводная таблица11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96E7D066-6BCD-C74A-A456-629E58FD8256}" name="Сводная таблица11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="23">
   <location ref="B38:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -34102,12 +33977,12 @@
       <c r="J3" s="8">
         <v>36.5</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="M3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -34140,7 +34015,7 @@
       <c r="J4" s="8">
         <v>63</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -34173,7 +34048,7 @@
       <c r="J5" s="8">
         <v>75</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -34206,7 +34081,7 @@
       <c r="J6" s="8">
         <v>45</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -34239,7 +34114,7 @@
       <c r="J7" s="8">
         <v>60</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -34272,7 +34147,7 @@
       <c r="J8" s="8">
         <v>60</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -34305,7 +34180,7 @@
       <c r="J9" s="8">
         <v>70</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -58718,34 +58593,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -70861,2829 +70736,2351 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AF8D23-ABA4-1A44-B54C-CBEFB7E9A58E}">
-  <dimension ref="A2:O772"/>
+  <dimension ref="A3:O772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O3" s="17"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="17"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O6" s="17"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O8" s="17"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="21">
-        <v>71.281954022988501</v>
-      </c>
-      <c r="C10" s="21">
-        <v>87.568181818181813</v>
-      </c>
-      <c r="O10" s="17"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="21">
-        <v>254.01051823041999</v>
-      </c>
-      <c r="C11" s="21">
-        <v>275.52989510489505</v>
-      </c>
-      <c r="O11" s="17"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="21">
-        <v>87</v>
-      </c>
-      <c r="C12" s="21">
-        <v>66</v>
-      </c>
-      <c r="O12" s="17"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="21">
-        <v>263.27382615651851</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="O13" s="17"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="21">
-        <v>0</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="O14" s="17"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="21">
-        <v>151</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="21">
-        <v>-6.1489723632650639</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="21">
-        <v>3.327541620635482E-9</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="O17" s="17"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="21">
-        <v>1.6550073865802402</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="O18" s="17"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="21">
-        <v>6.6550832412709639E-9</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="22">
-        <v>1.9757989238179368</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="O20" s="17"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O23" s="17"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="21">
-        <v>72.546716417910446</v>
-      </c>
-      <c r="C25" s="21">
-        <v>84.955555555555549</v>
-      </c>
-      <c r="O25" s="17"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="21">
-        <v>263.24067693351412</v>
-      </c>
-      <c r="C26" s="21">
-        <v>275.37440699126097</v>
-      </c>
-      <c r="O26" s="17"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="21">
-        <v>67</v>
-      </c>
-      <c r="C27" s="21">
-        <v>90</v>
-      </c>
-      <c r="O27" s="17"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="21">
-        <v>270.20778645054293</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="O28" s="17"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="O29" s="17"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="21">
-        <v>155</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="O30" s="17"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="21">
-        <v>-4.6783321738193848</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="O31" s="17"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="21">
-        <v>3.1284861316859455E-6</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="O32" s="17"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="21">
-        <v>1.6547437739197817</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="O33" s="17"/>
+      <c r="O33" s="16"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="21">
-        <v>6.2569722633718909E-6</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="22">
-        <v>1.9753871310551163</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="O35" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O36" s="17"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O37" s="17"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" s="17"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O39" s="17"/>
+      <c r="O39" s="16"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O41" s="17"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="16"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="O42" s="16"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>1.927461139896373</v>
-      </c>
-      <c r="C43">
-        <v>2.5598958333333335</v>
-      </c>
-      <c r="O43" s="17"/>
+      <c r="O43" s="16"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>4.0986205504340223</v>
-      </c>
-      <c r="C44">
-        <v>3.108674662750218</v>
-      </c>
-      <c r="O44" s="17"/>
+      <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>386</v>
-      </c>
-      <c r="C45">
-        <v>384</v>
-      </c>
-      <c r="O45" s="17"/>
+      <c r="O45" s="16"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>3.6049365986333748</v>
-      </c>
-      <c r="O46" s="17"/>
+      <c r="O46" s="16"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="O47" s="17"/>
+      <c r="O47" s="16"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>768</v>
-      </c>
-      <c r="O48" s="17"/>
+      <c r="O48" s="16"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>-4.621476748951781</v>
-      </c>
-      <c r="O49" s="17"/>
+      <c r="O49" s="16"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>2.2340223221838824E-6</v>
-      </c>
-      <c r="O50" s="17"/>
+      <c r="O50" s="16"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>1.6468401113756266</v>
-      </c>
-      <c r="O51" s="17"/>
+      <c r="O51" s="16"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>4.4680446443677648E-6</v>
-      </c>
-      <c r="O52" s="17"/>
-    </row>
-    <row r="53" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="13">
-        <v>1.963057670341438</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="O53" s="17"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="16"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O54" s="17"/>
+      <c r="O54" s="16"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O55" s="17"/>
+      <c r="O55" s="16"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O56" s="17"/>
+      <c r="O56" s="16"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O57" s="17"/>
+      <c r="O57" s="16"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="O58" s="17"/>
+      <c r="O58" s="16"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O59" s="17"/>
+      <c r="O59" s="16"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="O60" s="17"/>
-    </row>
-    <row r="61" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O61" s="17"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="16"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O62" s="17"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="O62" s="16"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63">
-        <v>0.70952380952380956</v>
-      </c>
-      <c r="C63">
-        <v>2.422857142857143</v>
-      </c>
-      <c r="D63" t="s">
-        <v>67</v>
-      </c>
-      <c r="O63" s="17"/>
+      <c r="O63" s="16"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64">
-        <v>0.8605296056370042</v>
-      </c>
-      <c r="C64">
-        <v>1.3049201801064272</v>
-      </c>
-      <c r="O64" s="17"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65">
-        <v>420</v>
-      </c>
-      <c r="C65">
-        <v>350</v>
-      </c>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66">
-        <v>1.0624727182539686</v>
-      </c>
-      <c r="O66" s="17"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="O67" s="17"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68">
-        <v>768</v>
-      </c>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69">
-        <v>-22.966577203162</v>
-      </c>
-      <c r="O69" s="17"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70">
-        <v>1.4447885404856698E-89</v>
-      </c>
-      <c r="O70" s="17"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71">
-        <v>1.6468401113756266</v>
-      </c>
-      <c r="O71" s="17"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72">
-        <v>2.8895770809713397E-89</v>
-      </c>
-      <c r="O72" s="17"/>
-    </row>
-    <row r="73" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="13">
-        <v>1.963057670341438</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="O73" s="17"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O74" s="17"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O75" s="17"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O76" s="17"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O77" s="17"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>62</v>
-      </c>
-      <c r="O78" s="17"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O79" s="17"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>41</v>
-      </c>
-      <c r="O80" s="17"/>
-    </row>
-    <row r="81" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O81" s="17"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="16"/>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="16"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="16"/>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="16"/>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="16"/>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="16"/>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O78" s="16"/>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O79" s="16"/>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="16"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="16"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O82" s="17"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="O82" s="16"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83">
-        <v>2.152173913043478</v>
-      </c>
-      <c r="C83">
-        <v>2.4270833333333335</v>
-      </c>
-      <c r="O83" s="17"/>
+      <c r="O83" s="16"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84">
-        <v>3.9040316205533601</v>
-      </c>
-      <c r="C84">
-        <v>3.7747600349040145</v>
-      </c>
-      <c r="O84" s="17"/>
+      <c r="O84" s="16"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85">
-        <v>276</v>
-      </c>
-      <c r="C85">
-        <v>192</v>
-      </c>
-      <c r="O85" s="17"/>
+      <c r="O85" s="16"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86">
-        <v>3.8510469148472977</v>
-      </c>
-      <c r="O86" s="17"/>
+      <c r="O86" s="16"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="O87" s="17"/>
+      <c r="O87" s="16"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88">
-        <v>466</v>
-      </c>
-      <c r="O88" s="17"/>
+      <c r="O88" s="16"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89">
-        <v>-1.4906732088548171</v>
-      </c>
-      <c r="O89" s="17"/>
+      <c r="O89" s="16"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90">
-        <v>6.8361933190798974E-2</v>
-      </c>
-      <c r="O90" s="17"/>
+      <c r="O90" s="16"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91">
-        <v>1.648130067561884</v>
-      </c>
-      <c r="O91" s="17"/>
+      <c r="O91" s="16"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92">
-        <v>0.13672386638159795</v>
-      </c>
-      <c r="O92" s="17"/>
-    </row>
-    <row r="93" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" s="13">
-        <v>1.9650677181873784</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="O93" s="17"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="16"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O94" s="17"/>
+      <c r="O94" s="16"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O95" s="17"/>
+      <c r="O95" s="16"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O96" s="17"/>
+      <c r="O96" s="16"/>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O97" s="17"/>
+      <c r="O97" s="16"/>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O98" s="17"/>
+      <c r="O98" s="16"/>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O99" s="17"/>
+      <c r="O99" s="16"/>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O100" s="17"/>
+      <c r="O100" s="16"/>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O101" s="17"/>
+      <c r="O101" s="16"/>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O102" s="17"/>
+      <c r="O102" s="16"/>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O103" s="17"/>
+      <c r="O103" s="16"/>
     </row>
     <row r="104" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O104" s="17"/>
+      <c r="O104" s="16"/>
     </row>
     <row r="105" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O105" s="17"/>
+      <c r="O105" s="16"/>
     </row>
     <row r="106" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O106" s="17"/>
+      <c r="O106" s="16"/>
     </row>
     <row r="107" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O107" s="17"/>
+      <c r="O107" s="16"/>
     </row>
     <row r="108" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O108" s="17"/>
+      <c r="O108" s="16"/>
     </row>
     <row r="109" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O109" s="17"/>
+      <c r="O109" s="16"/>
     </row>
     <row r="110" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O110" s="17"/>
+      <c r="O110" s="16"/>
     </row>
     <row r="111" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O111" s="17"/>
+      <c r="O111" s="16"/>
     </row>
     <row r="112" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O112" s="17"/>
+      <c r="O112" s="16"/>
     </row>
     <row r="113" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O113" s="17"/>
+      <c r="O113" s="16"/>
     </row>
     <row r="114" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O114" s="17"/>
+      <c r="O114" s="16"/>
     </row>
     <row r="115" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O115" s="17"/>
+      <c r="O115" s="16"/>
     </row>
     <row r="116" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O116" s="17"/>
+      <c r="O116" s="16"/>
     </row>
     <row r="117" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O117" s="17"/>
+      <c r="O117" s="16"/>
     </row>
     <row r="118" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O118" s="17"/>
+      <c r="O118" s="16"/>
     </row>
     <row r="119" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O119" s="17"/>
+      <c r="O119" s="16"/>
     </row>
     <row r="120" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O120" s="17"/>
+      <c r="O120" s="16"/>
     </row>
     <row r="121" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O121" s="17"/>
+      <c r="O121" s="16"/>
     </row>
     <row r="122" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O122" s="17"/>
+      <c r="O122" s="16"/>
     </row>
     <row r="123" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O123" s="17"/>
+      <c r="O123" s="16"/>
     </row>
     <row r="124" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O124" s="17"/>
+      <c r="O124" s="16"/>
     </row>
     <row r="125" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O125" s="17"/>
+      <c r="O125" s="16"/>
     </row>
     <row r="126" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O126" s="17"/>
+      <c r="O126" s="16"/>
     </row>
     <row r="127" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O127" s="17"/>
+      <c r="O127" s="16"/>
     </row>
     <row r="128" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O128" s="17"/>
+      <c r="O128" s="16"/>
     </row>
     <row r="129" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O129" s="17"/>
+      <c r="O129" s="16"/>
     </row>
     <row r="130" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O130" s="17"/>
+      <c r="O130" s="16"/>
     </row>
     <row r="131" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O131" s="17"/>
+      <c r="O131" s="16"/>
     </row>
     <row r="132" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O132" s="17"/>
+      <c r="O132" s="16"/>
     </row>
     <row r="133" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O133" s="17"/>
+      <c r="O133" s="16"/>
     </row>
     <row r="134" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O134" s="17"/>
+      <c r="O134" s="16"/>
     </row>
     <row r="135" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O135" s="17"/>
+      <c r="O135" s="16"/>
     </row>
     <row r="136" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O136" s="17"/>
+      <c r="O136" s="16"/>
     </row>
     <row r="137" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O137" s="17"/>
+      <c r="O137" s="16"/>
     </row>
     <row r="138" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O138" s="17"/>
+      <c r="O138" s="16"/>
     </row>
     <row r="139" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O139" s="17"/>
+      <c r="O139" s="16"/>
     </row>
     <row r="140" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O140" s="17"/>
+      <c r="O140" s="16"/>
     </row>
     <row r="141" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O141" s="17"/>
+      <c r="O141" s="16"/>
     </row>
     <row r="142" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O142" s="17"/>
+      <c r="O142" s="16"/>
     </row>
     <row r="143" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O143" s="17"/>
+      <c r="O143" s="16"/>
     </row>
     <row r="144" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O144" s="17"/>
+      <c r="O144" s="16"/>
     </row>
     <row r="145" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O145" s="17"/>
+      <c r="O145" s="16"/>
     </row>
     <row r="146" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O146" s="17"/>
+      <c r="O146" s="16"/>
     </row>
     <row r="147" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O147" s="17"/>
+      <c r="O147" s="16"/>
     </row>
     <row r="148" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O148" s="17"/>
+      <c r="O148" s="16"/>
     </row>
     <row r="149" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O149" s="17"/>
+      <c r="O149" s="16"/>
     </row>
     <row r="150" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O150" s="17"/>
+      <c r="O150" s="16"/>
     </row>
     <row r="151" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O151" s="17"/>
+      <c r="O151" s="16"/>
     </row>
     <row r="152" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O152" s="17"/>
+      <c r="O152" s="16"/>
     </row>
     <row r="153" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O153" s="17"/>
+      <c r="O153" s="16"/>
     </row>
     <row r="154" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O154" s="17"/>
+      <c r="O154" s="16"/>
     </row>
     <row r="155" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O155" s="17"/>
+      <c r="O155" s="16"/>
     </row>
     <row r="156" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O156" s="17"/>
+      <c r="O156" s="16"/>
     </row>
     <row r="157" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O157" s="17"/>
+      <c r="O157" s="16"/>
     </row>
     <row r="158" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O158" s="17"/>
+      <c r="O158" s="16"/>
     </row>
     <row r="159" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O159" s="17"/>
+      <c r="O159" s="16"/>
     </row>
     <row r="160" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O160" s="17"/>
+      <c r="O160" s="16"/>
     </row>
     <row r="161" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O161" s="17"/>
+      <c r="O161" s="16"/>
     </row>
     <row r="162" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O162" s="17"/>
+      <c r="O162" s="16"/>
     </row>
     <row r="163" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O163" s="17"/>
+      <c r="O163" s="16"/>
     </row>
     <row r="164" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O164" s="17"/>
+      <c r="O164" s="16"/>
     </row>
     <row r="165" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O165" s="17"/>
+      <c r="O165" s="16"/>
     </row>
     <row r="166" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O166" s="17"/>
+      <c r="O166" s="16"/>
     </row>
     <row r="167" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O167" s="17"/>
+      <c r="O167" s="16"/>
     </row>
     <row r="168" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O168" s="17"/>
+      <c r="O168" s="16"/>
     </row>
     <row r="169" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O169" s="17"/>
+      <c r="O169" s="16"/>
     </row>
     <row r="170" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O170" s="17"/>
+      <c r="O170" s="16"/>
     </row>
     <row r="171" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O171" s="17"/>
+      <c r="O171" s="16"/>
     </row>
     <row r="172" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O172" s="17"/>
+      <c r="O172" s="16"/>
     </row>
     <row r="173" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O173" s="17"/>
+      <c r="O173" s="16"/>
     </row>
     <row r="174" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O174" s="17"/>
+      <c r="O174" s="16"/>
     </row>
     <row r="175" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O175" s="17"/>
+      <c r="O175" s="16"/>
     </row>
     <row r="176" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O176" s="17"/>
+      <c r="O176" s="16"/>
     </row>
     <row r="177" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O177" s="17"/>
+      <c r="O177" s="16"/>
     </row>
     <row r="178" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O178" s="17"/>
+      <c r="O178" s="16"/>
     </row>
     <row r="179" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O179" s="17"/>
+      <c r="O179" s="16"/>
     </row>
     <row r="180" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O180" s="17"/>
+      <c r="O180" s="16"/>
     </row>
     <row r="181" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O181" s="17"/>
+      <c r="O181" s="16"/>
     </row>
     <row r="182" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O182" s="17"/>
+      <c r="O182" s="16"/>
     </row>
     <row r="183" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O183" s="17"/>
+      <c r="O183" s="16"/>
     </row>
     <row r="184" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O184" s="17"/>
+      <c r="O184" s="16"/>
     </row>
     <row r="185" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O185" s="17"/>
+      <c r="O185" s="16"/>
     </row>
     <row r="186" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O186" s="17"/>
+      <c r="O186" s="16"/>
     </row>
     <row r="187" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O187" s="17"/>
+      <c r="O187" s="16"/>
     </row>
     <row r="188" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O188" s="17"/>
+      <c r="O188" s="16"/>
     </row>
     <row r="189" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O189" s="17"/>
+      <c r="O189" s="16"/>
     </row>
     <row r="190" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O190" s="17"/>
+      <c r="O190" s="16"/>
     </row>
     <row r="191" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O191" s="17"/>
+      <c r="O191" s="16"/>
     </row>
     <row r="192" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O192" s="17"/>
+      <c r="O192" s="16"/>
     </row>
     <row r="193" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O193" s="17"/>
+      <c r="O193" s="16"/>
     </row>
     <row r="194" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O194" s="17"/>
+      <c r="O194" s="16"/>
     </row>
     <row r="195" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O195" s="17"/>
+      <c r="O195" s="16"/>
     </row>
     <row r="196" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O196" s="17"/>
+      <c r="O196" s="16"/>
     </row>
     <row r="197" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O197" s="17"/>
+      <c r="O197" s="16"/>
     </row>
     <row r="198" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O198" s="17"/>
+      <c r="O198" s="16"/>
     </row>
     <row r="199" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O199" s="17"/>
+      <c r="O199" s="16"/>
     </row>
     <row r="200" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O200" s="17"/>
+      <c r="O200" s="16"/>
     </row>
     <row r="201" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O201" s="17"/>
+      <c r="O201" s="16"/>
     </row>
     <row r="202" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O202" s="17"/>
+      <c r="O202" s="16"/>
     </row>
     <row r="203" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O203" s="17"/>
+      <c r="O203" s="16"/>
     </row>
     <row r="204" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O204" s="17"/>
+      <c r="O204" s="16"/>
     </row>
     <row r="205" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O205" s="17"/>
+      <c r="O205" s="16"/>
     </row>
     <row r="206" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O206" s="17"/>
+      <c r="O206" s="16"/>
     </row>
     <row r="207" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O207" s="17"/>
+      <c r="O207" s="16"/>
     </row>
     <row r="208" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O208" s="17"/>
+      <c r="O208" s="16"/>
     </row>
     <row r="209" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O209" s="17"/>
+      <c r="O209" s="16"/>
     </row>
     <row r="210" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O210" s="17"/>
+      <c r="O210" s="16"/>
     </row>
     <row r="211" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O211" s="17"/>
+      <c r="O211" s="16"/>
     </row>
     <row r="212" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O212" s="17"/>
+      <c r="O212" s="16"/>
     </row>
     <row r="213" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O213" s="17"/>
+      <c r="O213" s="16"/>
     </row>
     <row r="214" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O214" s="17"/>
+      <c r="O214" s="16"/>
     </row>
     <row r="215" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O215" s="17"/>
+      <c r="O215" s="16"/>
     </row>
     <row r="216" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O216" s="17"/>
+      <c r="O216" s="16"/>
     </row>
     <row r="217" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O217" s="17"/>
+      <c r="O217" s="16"/>
     </row>
     <row r="218" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O218" s="17"/>
+      <c r="O218" s="16"/>
     </row>
     <row r="219" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O219" s="17"/>
+      <c r="O219" s="16"/>
     </row>
     <row r="220" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O220" s="17"/>
+      <c r="O220" s="16"/>
     </row>
     <row r="221" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O221" s="17"/>
+      <c r="O221" s="16"/>
     </row>
     <row r="222" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O222" s="17"/>
+      <c r="O222" s="16"/>
     </row>
     <row r="223" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O223" s="17"/>
+      <c r="O223" s="16"/>
     </row>
     <row r="224" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O224" s="17"/>
+      <c r="O224" s="16"/>
     </row>
     <row r="225" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O225" s="17"/>
+      <c r="O225" s="16"/>
     </row>
     <row r="226" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O226" s="17"/>
+      <c r="O226" s="16"/>
     </row>
     <row r="227" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O227" s="17"/>
+      <c r="O227" s="16"/>
     </row>
     <row r="228" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O228" s="17"/>
+      <c r="O228" s="16"/>
     </row>
     <row r="229" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O229" s="17"/>
+      <c r="O229" s="16"/>
     </row>
     <row r="230" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O230" s="17"/>
+      <c r="O230" s="16"/>
     </row>
     <row r="231" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O231" s="17"/>
+      <c r="O231" s="16"/>
     </row>
     <row r="232" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O232" s="17"/>
+      <c r="O232" s="16"/>
     </row>
     <row r="233" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O233" s="17"/>
+      <c r="O233" s="16"/>
     </row>
     <row r="234" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O234" s="17"/>
+      <c r="O234" s="16"/>
     </row>
     <row r="235" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O235" s="17"/>
+      <c r="O235" s="16"/>
     </row>
     <row r="236" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O236" s="17"/>
+      <c r="O236" s="16"/>
     </row>
     <row r="237" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O237" s="17"/>
+      <c r="O237" s="16"/>
     </row>
     <row r="238" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O238" s="17"/>
+      <c r="O238" s="16"/>
     </row>
     <row r="239" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O239" s="17"/>
+      <c r="O239" s="16"/>
     </row>
     <row r="240" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O240" s="17"/>
+      <c r="O240" s="16"/>
     </row>
     <row r="241" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O241" s="17"/>
+      <c r="O241" s="16"/>
     </row>
     <row r="242" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O242" s="17"/>
+      <c r="O242" s="16"/>
     </row>
     <row r="243" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O243" s="17"/>
+      <c r="O243" s="16"/>
     </row>
     <row r="244" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O244" s="17"/>
+      <c r="O244" s="16"/>
     </row>
     <row r="245" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O245" s="17"/>
+      <c r="O245" s="16"/>
     </row>
     <row r="246" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O246" s="17"/>
+      <c r="O246" s="16"/>
     </row>
     <row r="247" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O247" s="17"/>
+      <c r="O247" s="16"/>
     </row>
     <row r="248" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O248" s="17"/>
+      <c r="O248" s="16"/>
     </row>
     <row r="249" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O249" s="17"/>
+      <c r="O249" s="16"/>
     </row>
     <row r="250" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O250" s="17"/>
+      <c r="O250" s="16"/>
     </row>
     <row r="251" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O251" s="17"/>
+      <c r="O251" s="16"/>
     </row>
     <row r="252" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O252" s="17"/>
+      <c r="O252" s="16"/>
     </row>
     <row r="253" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O253" s="17"/>
+      <c r="O253" s="16"/>
     </row>
     <row r="254" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O254" s="17"/>
+      <c r="O254" s="16"/>
     </row>
     <row r="255" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O255" s="17"/>
+      <c r="O255" s="16"/>
     </row>
     <row r="256" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O256" s="17"/>
+      <c r="O256" s="16"/>
     </row>
     <row r="257" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O257" s="17"/>
+      <c r="O257" s="16"/>
     </row>
     <row r="258" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O258" s="17"/>
+      <c r="O258" s="16"/>
     </row>
     <row r="259" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O259" s="17"/>
+      <c r="O259" s="16"/>
     </row>
     <row r="260" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O260" s="17"/>
+      <c r="O260" s="16"/>
     </row>
     <row r="261" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O261" s="17"/>
+      <c r="O261" s="16"/>
     </row>
     <row r="262" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O262" s="17"/>
+      <c r="O262" s="16"/>
     </row>
     <row r="263" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O263" s="17"/>
+      <c r="O263" s="16"/>
     </row>
     <row r="264" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O264" s="17"/>
+      <c r="O264" s="16"/>
     </row>
     <row r="265" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O265" s="17"/>
+      <c r="O265" s="16"/>
     </row>
     <row r="266" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O266" s="17"/>
+      <c r="O266" s="16"/>
     </row>
     <row r="267" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O267" s="17"/>
+      <c r="O267" s="16"/>
     </row>
     <row r="268" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O268" s="17"/>
+      <c r="O268" s="16"/>
     </row>
     <row r="269" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O269" s="17"/>
+      <c r="O269" s="16"/>
     </row>
     <row r="270" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O270" s="17"/>
+      <c r="O270" s="16"/>
     </row>
     <row r="271" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O271" s="17"/>
+      <c r="O271" s="16"/>
     </row>
     <row r="272" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O272" s="17"/>
+      <c r="O272" s="16"/>
     </row>
     <row r="273" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O273" s="17"/>
+      <c r="O273" s="16"/>
     </row>
     <row r="274" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O274" s="17"/>
+      <c r="O274" s="16"/>
     </row>
     <row r="275" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O275" s="17"/>
+      <c r="O275" s="16"/>
     </row>
     <row r="276" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O276" s="17"/>
+      <c r="O276" s="16"/>
     </row>
     <row r="277" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O277" s="17"/>
+      <c r="O277" s="16"/>
     </row>
     <row r="278" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O278" s="17"/>
+      <c r="O278" s="16"/>
     </row>
     <row r="279" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O279" s="17"/>
+      <c r="O279" s="16"/>
     </row>
     <row r="280" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O280" s="17"/>
+      <c r="O280" s="16"/>
     </row>
     <row r="281" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O281" s="17"/>
+      <c r="O281" s="16"/>
     </row>
     <row r="282" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O282" s="17"/>
+      <c r="O282" s="16"/>
     </row>
     <row r="283" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O283" s="17"/>
+      <c r="O283" s="16"/>
     </row>
     <row r="284" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O284" s="17"/>
+      <c r="O284" s="16"/>
     </row>
     <row r="285" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O285" s="17"/>
+      <c r="O285" s="16"/>
     </row>
     <row r="286" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O286" s="17"/>
+      <c r="O286" s="16"/>
     </row>
     <row r="287" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O287" s="17"/>
+      <c r="O287" s="16"/>
     </row>
     <row r="288" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O288" s="17"/>
+      <c r="O288" s="16"/>
     </row>
     <row r="289" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O289" s="17"/>
+      <c r="O289" s="16"/>
     </row>
     <row r="290" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O290" s="17"/>
+      <c r="O290" s="16"/>
     </row>
     <row r="291" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O291" s="17"/>
+      <c r="O291" s="16"/>
     </row>
     <row r="292" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O292" s="17"/>
+      <c r="O292" s="16"/>
     </row>
     <row r="293" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O293" s="17"/>
+      <c r="O293" s="16"/>
     </row>
     <row r="294" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O294" s="17"/>
+      <c r="O294" s="16"/>
     </row>
     <row r="295" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O295" s="17"/>
+      <c r="O295" s="16"/>
     </row>
     <row r="296" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O296" s="17"/>
+      <c r="O296" s="16"/>
     </row>
     <row r="297" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O297" s="17"/>
+      <c r="O297" s="16"/>
     </row>
     <row r="298" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O298" s="17"/>
+      <c r="O298" s="16"/>
     </row>
     <row r="299" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O299" s="17"/>
+      <c r="O299" s="16"/>
     </row>
     <row r="300" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O300" s="17"/>
+      <c r="O300" s="16"/>
     </row>
     <row r="301" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O301" s="17"/>
+      <c r="O301" s="16"/>
     </row>
     <row r="302" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O302" s="17"/>
+      <c r="O302" s="16"/>
     </row>
     <row r="303" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O303" s="17"/>
+      <c r="O303" s="16"/>
     </row>
     <row r="304" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O304" s="17"/>
+      <c r="O304" s="16"/>
     </row>
     <row r="305" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O305" s="17"/>
+      <c r="O305" s="16"/>
     </row>
     <row r="306" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O306" s="17"/>
+      <c r="O306" s="16"/>
     </row>
     <row r="307" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O307" s="17"/>
+      <c r="O307" s="16"/>
     </row>
     <row r="308" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O308" s="17"/>
+      <c r="O308" s="16"/>
     </row>
     <row r="309" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O309" s="17"/>
+      <c r="O309" s="16"/>
     </row>
     <row r="310" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O310" s="17"/>
+      <c r="O310" s="16"/>
     </row>
     <row r="311" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O311" s="17"/>
+      <c r="O311" s="16"/>
     </row>
     <row r="312" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O312" s="17"/>
+      <c r="O312" s="16"/>
     </row>
     <row r="313" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O313" s="17"/>
+      <c r="O313" s="16"/>
     </row>
     <row r="314" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O314" s="17"/>
+      <c r="O314" s="16"/>
     </row>
     <row r="315" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O315" s="17"/>
+      <c r="O315" s="16"/>
     </row>
     <row r="316" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O316" s="17"/>
+      <c r="O316" s="16"/>
     </row>
     <row r="317" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O317" s="17"/>
+      <c r="O317" s="16"/>
     </row>
     <row r="318" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O318" s="17"/>
+      <c r="O318" s="16"/>
     </row>
     <row r="319" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O319" s="17"/>
+      <c r="O319" s="16"/>
     </row>
     <row r="320" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O320" s="17"/>
+      <c r="O320" s="16"/>
     </row>
     <row r="321" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O321" s="17"/>
+      <c r="O321" s="16"/>
     </row>
     <row r="322" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O322" s="17"/>
+      <c r="O322" s="16"/>
     </row>
     <row r="323" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O323" s="17"/>
+      <c r="O323" s="16"/>
     </row>
     <row r="324" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O324" s="17"/>
+      <c r="O324" s="16"/>
     </row>
     <row r="325" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O325" s="17"/>
+      <c r="O325" s="16"/>
     </row>
     <row r="326" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O326" s="17"/>
+      <c r="O326" s="16"/>
     </row>
     <row r="327" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O327" s="17"/>
+      <c r="O327" s="16"/>
     </row>
     <row r="328" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O328" s="17"/>
+      <c r="O328" s="16"/>
     </row>
     <row r="329" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O329" s="17"/>
+      <c r="O329" s="16"/>
     </row>
     <row r="330" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O330" s="17"/>
+      <c r="O330" s="16"/>
     </row>
     <row r="331" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O331" s="17"/>
+      <c r="O331" s="16"/>
     </row>
     <row r="332" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O332" s="17"/>
+      <c r="O332" s="16"/>
     </row>
     <row r="333" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O333" s="17"/>
+      <c r="O333" s="16"/>
     </row>
     <row r="334" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O334" s="17"/>
+      <c r="O334" s="16"/>
     </row>
     <row r="335" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O335" s="17"/>
+      <c r="O335" s="16"/>
     </row>
     <row r="336" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O336" s="17"/>
+      <c r="O336" s="16"/>
     </row>
     <row r="337" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O337" s="17"/>
+      <c r="O337" s="16"/>
     </row>
     <row r="338" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O338" s="17"/>
+      <c r="O338" s="16"/>
     </row>
     <row r="339" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O339" s="17"/>
+      <c r="O339" s="16"/>
     </row>
     <row r="340" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O340" s="17"/>
+      <c r="O340" s="16"/>
     </row>
     <row r="341" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O341" s="17"/>
+      <c r="O341" s="16"/>
     </row>
     <row r="342" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O342" s="17"/>
+      <c r="O342" s="16"/>
     </row>
     <row r="343" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O343" s="17"/>
+      <c r="O343" s="16"/>
     </row>
     <row r="344" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O344" s="17"/>
+      <c r="O344" s="16"/>
     </row>
     <row r="345" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O345" s="17"/>
+      <c r="O345" s="16"/>
     </row>
     <row r="346" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O346" s="17"/>
+      <c r="O346" s="16"/>
     </row>
     <row r="347" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O347" s="17"/>
+      <c r="O347" s="16"/>
     </row>
     <row r="348" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O348" s="17"/>
+      <c r="O348" s="16"/>
     </row>
     <row r="349" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O349" s="17"/>
+      <c r="O349" s="16"/>
     </row>
     <row r="350" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O350" s="17"/>
+      <c r="O350" s="16"/>
     </row>
     <row r="351" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O351" s="17"/>
+      <c r="O351" s="16"/>
     </row>
     <row r="352" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O352" s="17"/>
+      <c r="O352" s="16"/>
     </row>
     <row r="353" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O353" s="17"/>
+      <c r="O353" s="16"/>
     </row>
     <row r="354" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O354" s="17"/>
+      <c r="O354" s="16"/>
     </row>
     <row r="355" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O355" s="17"/>
+      <c r="O355" s="16"/>
     </row>
     <row r="356" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O356" s="17"/>
+      <c r="O356" s="16"/>
     </row>
     <row r="357" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O357" s="17"/>
+      <c r="O357" s="16"/>
     </row>
     <row r="358" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O358" s="17"/>
+      <c r="O358" s="16"/>
     </row>
     <row r="359" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O359" s="17"/>
+      <c r="O359" s="16"/>
     </row>
     <row r="360" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O360" s="17"/>
+      <c r="O360" s="16"/>
     </row>
     <row r="361" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O361" s="17"/>
+      <c r="O361" s="16"/>
     </row>
     <row r="362" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O362" s="17"/>
+      <c r="O362" s="16"/>
     </row>
     <row r="363" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O363" s="17"/>
+      <c r="O363" s="16"/>
     </row>
     <row r="364" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O364" s="17"/>
+      <c r="O364" s="16"/>
     </row>
     <row r="365" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O365" s="17"/>
+      <c r="O365" s="16"/>
     </row>
     <row r="366" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O366" s="17"/>
+      <c r="O366" s="16"/>
     </row>
     <row r="367" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O367" s="17"/>
+      <c r="O367" s="16"/>
     </row>
     <row r="368" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O368" s="17"/>
+      <c r="O368" s="16"/>
     </row>
     <row r="369" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O369" s="17"/>
+      <c r="O369" s="16"/>
     </row>
     <row r="370" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O370" s="17"/>
+      <c r="O370" s="16"/>
     </row>
     <row r="371" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O371" s="17"/>
+      <c r="O371" s="16"/>
     </row>
     <row r="372" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O372" s="17"/>
+      <c r="O372" s="16"/>
     </row>
     <row r="373" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O373" s="17"/>
+      <c r="O373" s="16"/>
     </row>
     <row r="374" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O374" s="17"/>
+      <c r="O374" s="16"/>
     </row>
     <row r="375" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O375" s="17"/>
+      <c r="O375" s="16"/>
     </row>
     <row r="376" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O376" s="17"/>
+      <c r="O376" s="16"/>
     </row>
     <row r="377" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O377" s="17"/>
+      <c r="O377" s="16"/>
     </row>
     <row r="378" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O378" s="17"/>
+      <c r="O378" s="16"/>
     </row>
     <row r="379" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O379" s="17"/>
+      <c r="O379" s="16"/>
     </row>
     <row r="380" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O380" s="17"/>
+      <c r="O380" s="16"/>
     </row>
     <row r="381" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O381" s="17"/>
+      <c r="O381" s="16"/>
     </row>
     <row r="382" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O382" s="17"/>
+      <c r="O382" s="16"/>
     </row>
     <row r="383" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O383" s="17"/>
+      <c r="O383" s="16"/>
     </row>
     <row r="384" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O384" s="17"/>
+      <c r="O384" s="16"/>
     </row>
     <row r="385" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O385" s="17"/>
+      <c r="O385" s="16"/>
     </row>
     <row r="386" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O386" s="17"/>
+      <c r="O386" s="16"/>
     </row>
     <row r="387" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O387" s="17"/>
+      <c r="O387" s="16"/>
     </row>
     <row r="388" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O388" s="17"/>
+      <c r="O388" s="16"/>
     </row>
     <row r="389" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O389" s="17"/>
+      <c r="O389" s="16"/>
     </row>
     <row r="390" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O390" s="17"/>
+      <c r="O390" s="16"/>
     </row>
     <row r="391" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O391" s="17"/>
+      <c r="O391" s="16"/>
     </row>
     <row r="392" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O392" s="17"/>
+      <c r="O392" s="16"/>
     </row>
     <row r="393" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O393" s="17"/>
+      <c r="O393" s="16"/>
     </row>
     <row r="394" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O394" s="17"/>
+      <c r="O394" s="16"/>
     </row>
     <row r="395" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O395" s="17"/>
+      <c r="O395" s="16"/>
     </row>
     <row r="396" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O396" s="17"/>
+      <c r="O396" s="16"/>
     </row>
     <row r="397" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O397" s="17"/>
+      <c r="O397" s="16"/>
     </row>
     <row r="398" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O398" s="17"/>
+      <c r="O398" s="16"/>
     </row>
     <row r="399" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O399" s="17"/>
+      <c r="O399" s="16"/>
     </row>
     <row r="400" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O400" s="17"/>
+      <c r="O400" s="16"/>
     </row>
     <row r="401" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O401" s="17"/>
+      <c r="O401" s="16"/>
     </row>
     <row r="402" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O402" s="17"/>
+      <c r="O402" s="16"/>
     </row>
     <row r="403" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O403" s="17"/>
+      <c r="O403" s="16"/>
     </row>
     <row r="404" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O404" s="17"/>
+      <c r="O404" s="16"/>
     </row>
     <row r="405" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O405" s="17"/>
+      <c r="O405" s="16"/>
     </row>
     <row r="406" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O406" s="17"/>
+      <c r="O406" s="16"/>
     </row>
     <row r="407" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O407" s="17"/>
+      <c r="O407" s="16"/>
     </row>
     <row r="408" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O408" s="17"/>
+      <c r="O408" s="16"/>
     </row>
     <row r="409" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O409" s="17"/>
+      <c r="O409" s="16"/>
     </row>
     <row r="410" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O410" s="17"/>
+      <c r="O410" s="16"/>
     </row>
     <row r="411" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O411" s="17"/>
+      <c r="O411" s="16"/>
     </row>
     <row r="412" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O412" s="17"/>
+      <c r="O412" s="16"/>
     </row>
     <row r="413" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O413" s="17"/>
+      <c r="O413" s="16"/>
     </row>
     <row r="414" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O414" s="17"/>
+      <c r="O414" s="16"/>
     </row>
     <row r="415" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O415" s="17"/>
+      <c r="O415" s="16"/>
     </row>
     <row r="416" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O416" s="17"/>
+      <c r="O416" s="16"/>
     </row>
     <row r="417" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O417" s="17"/>
+      <c r="O417" s="16"/>
     </row>
     <row r="418" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O418" s="17"/>
+      <c r="O418" s="16"/>
     </row>
     <row r="419" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O419" s="17"/>
+      <c r="O419" s="16"/>
     </row>
     <row r="420" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O420" s="17"/>
+      <c r="O420" s="16"/>
     </row>
     <row r="421" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O421" s="17"/>
+      <c r="O421" s="16"/>
     </row>
     <row r="422" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O422" s="17"/>
+      <c r="O422" s="16"/>
     </row>
     <row r="423" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O423" s="17"/>
+      <c r="O423" s="16"/>
     </row>
     <row r="424" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O424" s="17"/>
+      <c r="O424" s="16"/>
     </row>
     <row r="425" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O425" s="17"/>
+      <c r="O425" s="16"/>
     </row>
     <row r="426" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O426" s="17"/>
+      <c r="O426" s="16"/>
     </row>
     <row r="427" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O427" s="17"/>
+      <c r="O427" s="16"/>
     </row>
     <row r="428" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O428" s="17"/>
+      <c r="O428" s="16"/>
     </row>
     <row r="429" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O429" s="17"/>
+      <c r="O429" s="16"/>
     </row>
     <row r="430" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O430" s="17"/>
+      <c r="O430" s="16"/>
     </row>
     <row r="431" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O431" s="17"/>
+      <c r="O431" s="16"/>
     </row>
     <row r="432" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O432" s="17"/>
+      <c r="O432" s="16"/>
     </row>
     <row r="433" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O433" s="17"/>
+      <c r="O433" s="16"/>
     </row>
     <row r="434" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O434" s="17"/>
+      <c r="O434" s="16"/>
     </row>
     <row r="435" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O435" s="17"/>
+      <c r="O435" s="16"/>
     </row>
     <row r="436" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O436" s="17"/>
+      <c r="O436" s="16"/>
     </row>
     <row r="437" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O437" s="17"/>
+      <c r="O437" s="16"/>
     </row>
     <row r="438" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O438" s="17"/>
+      <c r="O438" s="16"/>
     </row>
     <row r="439" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O439" s="17"/>
+      <c r="O439" s="16"/>
     </row>
     <row r="440" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O440" s="17"/>
+      <c r="O440" s="16"/>
     </row>
     <row r="441" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O441" s="17"/>
+      <c r="O441" s="16"/>
     </row>
     <row r="442" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O442" s="17"/>
+      <c r="O442" s="16"/>
     </row>
     <row r="443" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O443" s="17"/>
+      <c r="O443" s="16"/>
     </row>
     <row r="444" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O444" s="17"/>
+      <c r="O444" s="16"/>
     </row>
     <row r="445" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O445" s="17"/>
+      <c r="O445" s="16"/>
     </row>
     <row r="446" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O446" s="17"/>
+      <c r="O446" s="16"/>
     </row>
     <row r="447" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O447" s="17"/>
+      <c r="O447" s="16"/>
     </row>
     <row r="448" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O448" s="17"/>
+      <c r="O448" s="16"/>
     </row>
     <row r="449" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O449" s="17"/>
+      <c r="O449" s="16"/>
     </row>
     <row r="450" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O450" s="17"/>
+      <c r="O450" s="16"/>
     </row>
     <row r="451" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O451" s="17"/>
+      <c r="O451" s="16"/>
     </row>
     <row r="452" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O452" s="17"/>
+      <c r="O452" s="16"/>
     </row>
     <row r="453" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O453" s="17"/>
+      <c r="O453" s="16"/>
     </row>
     <row r="454" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O454" s="17"/>
+      <c r="O454" s="16"/>
     </row>
     <row r="455" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O455" s="17"/>
+      <c r="O455" s="16"/>
     </row>
     <row r="456" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O456" s="17"/>
+      <c r="O456" s="16"/>
     </row>
     <row r="457" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O457" s="17"/>
+      <c r="O457" s="16"/>
     </row>
     <row r="458" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O458" s="17"/>
+      <c r="O458" s="16"/>
     </row>
     <row r="459" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O459" s="17"/>
+      <c r="O459" s="16"/>
     </row>
     <row r="460" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O460" s="17"/>
+      <c r="O460" s="16"/>
     </row>
     <row r="461" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O461" s="17"/>
+      <c r="O461" s="16"/>
     </row>
     <row r="462" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O462" s="17"/>
+      <c r="O462" s="16"/>
     </row>
     <row r="463" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O463" s="17"/>
+      <c r="O463" s="16"/>
     </row>
     <row r="464" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O464" s="17"/>
+      <c r="O464" s="16"/>
     </row>
     <row r="465" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O465" s="17"/>
+      <c r="O465" s="16"/>
     </row>
     <row r="466" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O466" s="17"/>
+      <c r="O466" s="16"/>
     </row>
     <row r="467" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O467" s="17"/>
+      <c r="O467" s="16"/>
     </row>
     <row r="468" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O468" s="17"/>
+      <c r="O468" s="16"/>
     </row>
     <row r="469" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O469" s="17"/>
+      <c r="O469" s="16"/>
     </row>
     <row r="470" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O470" s="17"/>
+      <c r="O470" s="16"/>
     </row>
     <row r="471" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O471" s="17"/>
+      <c r="O471" s="16"/>
     </row>
     <row r="472" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O472" s="17"/>
+      <c r="O472" s="16"/>
     </row>
     <row r="473" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O473" s="17"/>
+      <c r="O473" s="16"/>
     </row>
     <row r="474" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O474" s="17"/>
+      <c r="O474" s="16"/>
     </row>
     <row r="475" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O475" s="17"/>
+      <c r="O475" s="16"/>
     </row>
     <row r="476" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O476" s="17"/>
+      <c r="O476" s="16"/>
     </row>
     <row r="477" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O477" s="17"/>
+      <c r="O477" s="16"/>
     </row>
     <row r="478" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O478" s="17"/>
+      <c r="O478" s="16"/>
     </row>
     <row r="479" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O479" s="17"/>
+      <c r="O479" s="16"/>
     </row>
     <row r="480" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O480" s="17"/>
+      <c r="O480" s="16"/>
     </row>
     <row r="481" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O481" s="17"/>
+      <c r="O481" s="16"/>
     </row>
     <row r="482" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O482" s="17"/>
+      <c r="O482" s="16"/>
     </row>
     <row r="483" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O483" s="17"/>
+      <c r="O483" s="16"/>
     </row>
     <row r="484" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O484" s="17"/>
+      <c r="O484" s="16"/>
     </row>
     <row r="485" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O485" s="17"/>
+      <c r="O485" s="16"/>
     </row>
     <row r="486" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O486" s="17"/>
+      <c r="O486" s="16"/>
     </row>
     <row r="487" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O487" s="17"/>
+      <c r="O487" s="16"/>
     </row>
     <row r="488" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O488" s="17"/>
+      <c r="O488" s="16"/>
     </row>
     <row r="489" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O489" s="17"/>
+      <c r="O489" s="16"/>
     </row>
     <row r="490" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O490" s="17"/>
+      <c r="O490" s="16"/>
     </row>
     <row r="491" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O491" s="17"/>
+      <c r="O491" s="16"/>
     </row>
     <row r="492" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O492" s="17"/>
+      <c r="O492" s="16"/>
     </row>
     <row r="493" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O493" s="17"/>
+      <c r="O493" s="16"/>
     </row>
     <row r="494" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O494" s="17"/>
+      <c r="O494" s="16"/>
     </row>
     <row r="495" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O495" s="17"/>
+      <c r="O495" s="16"/>
     </row>
     <row r="496" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O496" s="17"/>
+      <c r="O496" s="16"/>
     </row>
     <row r="497" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O497" s="17"/>
+      <c r="O497" s="16"/>
     </row>
     <row r="498" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O498" s="17"/>
+      <c r="O498" s="16"/>
     </row>
     <row r="499" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O499" s="17"/>
+      <c r="O499" s="16"/>
     </row>
     <row r="500" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O500" s="17"/>
+      <c r="O500" s="16"/>
     </row>
     <row r="501" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O501" s="17"/>
+      <c r="O501" s="16"/>
     </row>
     <row r="502" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O502" s="17"/>
+      <c r="O502" s="16"/>
     </row>
     <row r="503" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O503" s="17"/>
+      <c r="O503" s="16"/>
     </row>
     <row r="504" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O504" s="17"/>
+      <c r="O504" s="16"/>
     </row>
     <row r="505" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O505" s="17"/>
+      <c r="O505" s="16"/>
     </row>
     <row r="506" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O506" s="17"/>
+      <c r="O506" s="16"/>
     </row>
     <row r="507" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O507" s="17"/>
+      <c r="O507" s="16"/>
     </row>
     <row r="508" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O508" s="17"/>
+      <c r="O508" s="16"/>
     </row>
     <row r="509" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O509" s="17"/>
+      <c r="O509" s="16"/>
     </row>
     <row r="510" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O510" s="17"/>
+      <c r="O510" s="16"/>
     </row>
     <row r="511" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O511" s="17"/>
+      <c r="O511" s="16"/>
     </row>
     <row r="512" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O512" s="17"/>
+      <c r="O512" s="16"/>
     </row>
     <row r="513" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O513" s="17"/>
+      <c r="O513" s="16"/>
     </row>
     <row r="514" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O514" s="17"/>
+      <c r="O514" s="16"/>
     </row>
     <row r="515" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O515" s="17"/>
+      <c r="O515" s="16"/>
     </row>
     <row r="516" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O516" s="17"/>
+      <c r="O516" s="16"/>
     </row>
     <row r="517" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O517" s="17"/>
+      <c r="O517" s="16"/>
     </row>
     <row r="518" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O518" s="17"/>
+      <c r="O518" s="16"/>
     </row>
     <row r="519" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O519" s="17"/>
+      <c r="O519" s="16"/>
     </row>
     <row r="520" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O520" s="17"/>
+      <c r="O520" s="16"/>
     </row>
     <row r="521" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O521" s="17"/>
+      <c r="O521" s="16"/>
     </row>
     <row r="522" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O522" s="17"/>
+      <c r="O522" s="16"/>
     </row>
     <row r="523" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O523" s="17"/>
+      <c r="O523" s="16"/>
     </row>
     <row r="524" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O524" s="17"/>
+      <c r="O524" s="16"/>
     </row>
     <row r="525" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O525" s="17"/>
+      <c r="O525" s="16"/>
     </row>
     <row r="526" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O526" s="17"/>
+      <c r="O526" s="16"/>
     </row>
     <row r="527" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O527" s="17"/>
+      <c r="O527" s="16"/>
     </row>
     <row r="528" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O528" s="17"/>
+      <c r="O528" s="16"/>
     </row>
     <row r="529" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O529" s="17"/>
+      <c r="O529" s="16"/>
     </row>
     <row r="530" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O530" s="17"/>
+      <c r="O530" s="16"/>
     </row>
     <row r="531" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O531" s="17"/>
+      <c r="O531" s="16"/>
     </row>
     <row r="532" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O532" s="17"/>
+      <c r="O532" s="16"/>
     </row>
     <row r="533" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O533" s="17"/>
+      <c r="O533" s="16"/>
     </row>
     <row r="534" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O534" s="17"/>
+      <c r="O534" s="16"/>
     </row>
     <row r="535" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O535" s="17"/>
+      <c r="O535" s="16"/>
     </row>
     <row r="536" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O536" s="17"/>
+      <c r="O536" s="16"/>
     </row>
     <row r="537" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O537" s="17"/>
+      <c r="O537" s="16"/>
     </row>
     <row r="538" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O538" s="17"/>
+      <c r="O538" s="16"/>
     </row>
     <row r="539" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O539" s="17"/>
+      <c r="O539" s="16"/>
     </row>
     <row r="540" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O540" s="17"/>
+      <c r="O540" s="16"/>
     </row>
     <row r="541" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O541" s="17"/>
+      <c r="O541" s="16"/>
     </row>
     <row r="542" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O542" s="17"/>
+      <c r="O542" s="16"/>
     </row>
     <row r="543" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O543" s="17"/>
+      <c r="O543" s="16"/>
     </row>
     <row r="544" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O544" s="17"/>
+      <c r="O544" s="16"/>
     </row>
     <row r="545" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O545" s="17"/>
+      <c r="O545" s="16"/>
     </row>
     <row r="546" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O546" s="17"/>
+      <c r="O546" s="16"/>
     </row>
     <row r="547" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O547" s="17"/>
+      <c r="O547" s="16"/>
     </row>
     <row r="548" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O548" s="17"/>
+      <c r="O548" s="16"/>
     </row>
     <row r="549" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O549" s="17"/>
+      <c r="O549" s="16"/>
     </row>
     <row r="550" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O550" s="17"/>
+      <c r="O550" s="16"/>
     </row>
     <row r="551" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O551" s="17"/>
+      <c r="O551" s="16"/>
     </row>
     <row r="552" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O552" s="17"/>
+      <c r="O552" s="16"/>
     </row>
     <row r="553" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O553" s="17"/>
+      <c r="O553" s="16"/>
     </row>
     <row r="554" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O554" s="17"/>
+      <c r="O554" s="16"/>
     </row>
     <row r="555" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O555" s="17"/>
+      <c r="O555" s="16"/>
     </row>
     <row r="556" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O556" s="17"/>
+      <c r="O556" s="16"/>
     </row>
     <row r="557" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O557" s="17"/>
+      <c r="O557" s="16"/>
     </row>
     <row r="558" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O558" s="17"/>
+      <c r="O558" s="16"/>
     </row>
     <row r="559" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O559" s="17"/>
+      <c r="O559" s="16"/>
     </row>
     <row r="560" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O560" s="17"/>
+      <c r="O560" s="16"/>
     </row>
     <row r="561" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O561" s="17"/>
+      <c r="O561" s="16"/>
     </row>
     <row r="562" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O562" s="17"/>
+      <c r="O562" s="16"/>
     </row>
     <row r="563" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O563" s="17"/>
+      <c r="O563" s="16"/>
     </row>
     <row r="564" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O564" s="17"/>
+      <c r="O564" s="16"/>
     </row>
     <row r="565" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O565" s="17"/>
+      <c r="O565" s="16"/>
     </row>
     <row r="566" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O566" s="17"/>
+      <c r="O566" s="16"/>
     </row>
     <row r="567" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O567" s="17"/>
+      <c r="O567" s="16"/>
     </row>
     <row r="568" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O568" s="17"/>
+      <c r="O568" s="16"/>
     </row>
     <row r="569" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O569" s="17"/>
+      <c r="O569" s="16"/>
     </row>
     <row r="570" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O570" s="17"/>
+      <c r="O570" s="16"/>
     </row>
     <row r="571" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O571" s="17"/>
+      <c r="O571" s="16"/>
     </row>
     <row r="572" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O572" s="17"/>
+      <c r="O572" s="16"/>
     </row>
     <row r="573" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O573" s="17"/>
+      <c r="O573" s="16"/>
     </row>
     <row r="574" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O574" s="17"/>
+      <c r="O574" s="16"/>
     </row>
     <row r="575" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O575" s="17"/>
+      <c r="O575" s="16"/>
     </row>
     <row r="576" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O576" s="17"/>
+      <c r="O576" s="16"/>
     </row>
     <row r="577" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O577" s="17"/>
+      <c r="O577" s="16"/>
     </row>
     <row r="578" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O578" s="17"/>
+      <c r="O578" s="16"/>
     </row>
     <row r="579" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O579" s="17"/>
+      <c r="O579" s="16"/>
     </row>
     <row r="580" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O580" s="17"/>
+      <c r="O580" s="16"/>
     </row>
     <row r="581" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O581" s="17"/>
+      <c r="O581" s="16"/>
     </row>
     <row r="582" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O582" s="17"/>
+      <c r="O582" s="16"/>
     </row>
     <row r="583" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O583" s="17"/>
+      <c r="O583" s="16"/>
     </row>
     <row r="584" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O584" s="17"/>
+      <c r="O584" s="16"/>
     </row>
     <row r="585" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O585" s="17"/>
+      <c r="O585" s="16"/>
     </row>
     <row r="586" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O586" s="17"/>
+      <c r="O586" s="16"/>
     </row>
     <row r="587" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O587" s="17"/>
+      <c r="O587" s="16"/>
     </row>
     <row r="588" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O588" s="17"/>
+      <c r="O588" s="16"/>
     </row>
     <row r="589" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O589" s="17"/>
+      <c r="O589" s="16"/>
     </row>
     <row r="590" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O590" s="17"/>
+      <c r="O590" s="16"/>
     </row>
     <row r="591" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O591" s="17"/>
+      <c r="O591" s="16"/>
     </row>
     <row r="592" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O592" s="17"/>
+      <c r="O592" s="16"/>
     </row>
     <row r="593" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O593" s="17"/>
+      <c r="O593" s="16"/>
     </row>
     <row r="594" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O594" s="17"/>
+      <c r="O594" s="16"/>
     </row>
     <row r="595" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O595" s="17"/>
+      <c r="O595" s="16"/>
     </row>
     <row r="596" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O596" s="17"/>
+      <c r="O596" s="16"/>
     </row>
     <row r="597" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O597" s="17"/>
+      <c r="O597" s="16"/>
     </row>
     <row r="598" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O598" s="17"/>
+      <c r="O598" s="16"/>
     </row>
     <row r="599" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O599" s="17"/>
+      <c r="O599" s="16"/>
     </row>
     <row r="600" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O600" s="17"/>
+      <c r="O600" s="16"/>
     </row>
     <row r="601" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O601" s="17"/>
+      <c r="O601" s="16"/>
     </row>
     <row r="602" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O602" s="17"/>
+      <c r="O602" s="16"/>
     </row>
     <row r="603" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O603" s="17"/>
+      <c r="O603" s="16"/>
     </row>
     <row r="604" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O604" s="17"/>
+      <c r="O604" s="16"/>
     </row>
     <row r="605" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O605" s="17"/>
+      <c r="O605" s="16"/>
     </row>
     <row r="606" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O606" s="17"/>
+      <c r="O606" s="16"/>
     </row>
     <row r="607" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O607" s="17"/>
+      <c r="O607" s="16"/>
     </row>
     <row r="608" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O608" s="17"/>
+      <c r="O608" s="16"/>
     </row>
     <row r="609" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O609" s="17"/>
+      <c r="O609" s="16"/>
     </row>
     <row r="610" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O610" s="17"/>
+      <c r="O610" s="16"/>
     </row>
     <row r="611" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O611" s="17"/>
+      <c r="O611" s="16"/>
     </row>
     <row r="612" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O612" s="17"/>
+      <c r="O612" s="16"/>
     </row>
     <row r="613" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O613" s="17"/>
+      <c r="O613" s="16"/>
     </row>
     <row r="614" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O614" s="17"/>
+      <c r="O614" s="16"/>
     </row>
     <row r="615" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O615" s="17"/>
+      <c r="O615" s="16"/>
     </row>
     <row r="616" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O616" s="17"/>
+      <c r="O616" s="16"/>
     </row>
     <row r="617" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O617" s="17"/>
+      <c r="O617" s="16"/>
     </row>
     <row r="618" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O618" s="17"/>
+      <c r="O618" s="16"/>
     </row>
     <row r="619" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O619" s="17"/>
+      <c r="O619" s="16"/>
     </row>
     <row r="620" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O620" s="17"/>
+      <c r="O620" s="16"/>
     </row>
     <row r="621" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O621" s="17"/>
+      <c r="O621" s="16"/>
     </row>
     <row r="622" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O622" s="17"/>
+      <c r="O622" s="16"/>
     </row>
     <row r="623" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O623" s="17"/>
+      <c r="O623" s="16"/>
     </row>
     <row r="624" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O624" s="17"/>
+      <c r="O624" s="16"/>
     </row>
     <row r="625" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O625" s="17"/>
+      <c r="O625" s="16"/>
     </row>
     <row r="626" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O626" s="17"/>
+      <c r="O626" s="16"/>
     </row>
     <row r="627" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O627" s="17"/>
+      <c r="O627" s="16"/>
     </row>
     <row r="628" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O628" s="17"/>
+      <c r="O628" s="16"/>
     </row>
     <row r="629" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O629" s="17"/>
+      <c r="O629" s="16"/>
     </row>
     <row r="630" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O630" s="17"/>
+      <c r="O630" s="16"/>
     </row>
     <row r="631" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O631" s="17"/>
+      <c r="O631" s="16"/>
     </row>
     <row r="632" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O632" s="17"/>
+      <c r="O632" s="16"/>
     </row>
     <row r="633" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O633" s="17"/>
+      <c r="O633" s="16"/>
     </row>
     <row r="634" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O634" s="17"/>
+      <c r="O634" s="16"/>
     </row>
     <row r="635" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O635" s="17"/>
+      <c r="O635" s="16"/>
     </row>
     <row r="636" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O636" s="17"/>
+      <c r="O636" s="16"/>
     </row>
     <row r="637" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O637" s="17"/>
+      <c r="O637" s="16"/>
     </row>
     <row r="638" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O638" s="17"/>
+      <c r="O638" s="16"/>
     </row>
     <row r="639" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O639" s="17"/>
+      <c r="O639" s="16"/>
     </row>
     <row r="640" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O640" s="17"/>
+      <c r="O640" s="16"/>
     </row>
     <row r="641" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O641" s="17"/>
+      <c r="O641" s="16"/>
     </row>
     <row r="642" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O642" s="17"/>
+      <c r="O642" s="16"/>
     </row>
     <row r="643" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O643" s="17"/>
+      <c r="O643" s="16"/>
     </row>
     <row r="644" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O644" s="17"/>
+      <c r="O644" s="16"/>
     </row>
     <row r="645" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O645" s="17"/>
+      <c r="O645" s="16"/>
     </row>
     <row r="646" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O646" s="17"/>
+      <c r="O646" s="16"/>
     </row>
     <row r="647" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O647" s="17"/>
+      <c r="O647" s="16"/>
     </row>
     <row r="648" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O648" s="17"/>
+      <c r="O648" s="16"/>
     </row>
     <row r="649" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O649" s="17"/>
+      <c r="O649" s="16"/>
     </row>
     <row r="650" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O650" s="17"/>
+      <c r="O650" s="16"/>
     </row>
     <row r="651" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O651" s="17"/>
+      <c r="O651" s="16"/>
     </row>
     <row r="652" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O652" s="17"/>
+      <c r="O652" s="16"/>
     </row>
     <row r="653" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O653" s="17"/>
+      <c r="O653" s="16"/>
     </row>
     <row r="654" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O654" s="17"/>
+      <c r="O654" s="16"/>
     </row>
     <row r="655" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O655" s="17"/>
+      <c r="O655" s="16"/>
     </row>
     <row r="656" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O656" s="17"/>
+      <c r="O656" s="16"/>
     </row>
     <row r="657" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O657" s="17"/>
+      <c r="O657" s="16"/>
     </row>
     <row r="658" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O658" s="17"/>
+      <c r="O658" s="16"/>
     </row>
     <row r="659" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O659" s="17"/>
+      <c r="O659" s="16"/>
     </row>
     <row r="660" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O660" s="17"/>
+      <c r="O660" s="16"/>
     </row>
     <row r="661" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O661" s="17"/>
+      <c r="O661" s="16"/>
     </row>
     <row r="662" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O662" s="17"/>
+      <c r="O662" s="16"/>
     </row>
     <row r="663" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O663" s="17"/>
+      <c r="O663" s="16"/>
     </row>
     <row r="664" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O664" s="17"/>
+      <c r="O664" s="16"/>
     </row>
     <row r="665" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O665" s="17"/>
+      <c r="O665" s="16"/>
     </row>
     <row r="666" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O666" s="17"/>
+      <c r="O666" s="16"/>
     </row>
     <row r="667" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O667" s="17"/>
+      <c r="O667" s="16"/>
     </row>
     <row r="668" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O668" s="17"/>
+      <c r="O668" s="16"/>
     </row>
     <row r="669" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O669" s="17"/>
+      <c r="O669" s="16"/>
     </row>
     <row r="670" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O670" s="17"/>
+      <c r="O670" s="16"/>
     </row>
     <row r="671" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O671" s="17"/>
+      <c r="O671" s="16"/>
     </row>
     <row r="672" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O672" s="17"/>
+      <c r="O672" s="16"/>
     </row>
     <row r="673" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O673" s="17"/>
+      <c r="O673" s="16"/>
     </row>
     <row r="674" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O674" s="17"/>
+      <c r="O674" s="16"/>
     </row>
     <row r="675" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O675" s="17"/>
+      <c r="O675" s="16"/>
     </row>
     <row r="676" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O676" s="17"/>
+      <c r="O676" s="16"/>
     </row>
     <row r="677" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O677" s="17"/>
+      <c r="O677" s="16"/>
     </row>
     <row r="678" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O678" s="17"/>
+      <c r="O678" s="16"/>
     </row>
     <row r="679" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O679" s="17"/>
+      <c r="O679" s="16"/>
     </row>
     <row r="680" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O680" s="17"/>
+      <c r="O680" s="16"/>
     </row>
     <row r="681" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O681" s="17"/>
+      <c r="O681" s="16"/>
     </row>
     <row r="682" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O682" s="17"/>
+      <c r="O682" s="16"/>
     </row>
     <row r="683" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O683" s="17"/>
+      <c r="O683" s="16"/>
     </row>
     <row r="684" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O684" s="17"/>
+      <c r="O684" s="16"/>
     </row>
     <row r="685" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O685" s="17"/>
+      <c r="O685" s="16"/>
     </row>
     <row r="686" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O686" s="17"/>
+      <c r="O686" s="16"/>
     </row>
     <row r="687" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O687" s="17"/>
+      <c r="O687" s="16"/>
     </row>
     <row r="688" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O688" s="17"/>
+      <c r="O688" s="16"/>
     </row>
     <row r="689" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O689" s="17"/>
+      <c r="O689" s="16"/>
     </row>
     <row r="690" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O690" s="17"/>
+      <c r="O690" s="16"/>
     </row>
     <row r="691" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O691" s="17"/>
+      <c r="O691" s="16"/>
     </row>
     <row r="692" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O692" s="17"/>
+      <c r="O692" s="16"/>
     </row>
     <row r="693" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O693" s="17"/>
+      <c r="O693" s="16"/>
     </row>
     <row r="694" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O694" s="17"/>
+      <c r="O694" s="16"/>
     </row>
     <row r="695" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O695" s="17"/>
+      <c r="O695" s="16"/>
     </row>
     <row r="696" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O696" s="17"/>
+      <c r="O696" s="16"/>
     </row>
     <row r="697" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O697" s="17"/>
+      <c r="O697" s="16"/>
     </row>
     <row r="698" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O698" s="17"/>
+      <c r="O698" s="16"/>
     </row>
     <row r="699" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O699" s="17"/>
+      <c r="O699" s="16"/>
     </row>
     <row r="700" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O700" s="17"/>
+      <c r="O700" s="16"/>
     </row>
     <row r="701" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O701" s="17"/>
+      <c r="O701" s="16"/>
     </row>
     <row r="702" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O702" s="17"/>
+      <c r="O702" s="16"/>
     </row>
     <row r="703" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O703" s="17"/>
+      <c r="O703" s="16"/>
     </row>
     <row r="704" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O704" s="17"/>
+      <c r="O704" s="16"/>
     </row>
     <row r="705" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O705" s="17"/>
+      <c r="O705" s="16"/>
     </row>
     <row r="706" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O706" s="17"/>
+      <c r="O706" s="16"/>
     </row>
     <row r="707" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O707" s="17"/>
+      <c r="O707" s="16"/>
     </row>
     <row r="708" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O708" s="17"/>
+      <c r="O708" s="16"/>
     </row>
     <row r="709" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O709" s="17"/>
+      <c r="O709" s="16"/>
     </row>
     <row r="710" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O710" s="17"/>
+      <c r="O710" s="16"/>
     </row>
     <row r="711" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O711" s="17"/>
+      <c r="O711" s="16"/>
     </row>
     <row r="712" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O712" s="17"/>
+      <c r="O712" s="16"/>
     </row>
     <row r="713" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O713" s="17"/>
+      <c r="O713" s="16"/>
     </row>
     <row r="714" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O714" s="17"/>
+      <c r="O714" s="16"/>
     </row>
     <row r="715" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O715" s="17"/>
+      <c r="O715" s="16"/>
     </row>
     <row r="716" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O716" s="17"/>
+      <c r="O716" s="16"/>
     </row>
     <row r="717" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O717" s="17"/>
+      <c r="O717" s="16"/>
     </row>
     <row r="718" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O718" s="17"/>
+      <c r="O718" s="16"/>
     </row>
     <row r="719" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O719" s="17"/>
+      <c r="O719" s="16"/>
     </row>
     <row r="720" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O720" s="17"/>
+      <c r="O720" s="16"/>
     </row>
     <row r="721" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O721" s="17"/>
+      <c r="O721" s="16"/>
     </row>
     <row r="722" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O722" s="17"/>
+      <c r="O722" s="16"/>
     </row>
     <row r="723" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O723" s="17"/>
+      <c r="O723" s="16"/>
     </row>
     <row r="724" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O724" s="17"/>
+      <c r="O724" s="16"/>
     </row>
     <row r="725" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O725" s="17"/>
+      <c r="O725" s="16"/>
     </row>
     <row r="726" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O726" s="17"/>
+      <c r="O726" s="16"/>
     </row>
     <row r="727" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O727" s="17"/>
+      <c r="O727" s="16"/>
     </row>
     <row r="728" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O728" s="17"/>
+      <c r="O728" s="16"/>
     </row>
     <row r="729" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O729" s="17"/>
+      <c r="O729" s="16"/>
     </row>
     <row r="730" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O730" s="17"/>
+      <c r="O730" s="16"/>
     </row>
     <row r="731" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O731" s="17"/>
+      <c r="O731" s="16"/>
     </row>
     <row r="732" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O732" s="17"/>
+      <c r="O732" s="16"/>
     </row>
     <row r="733" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O733" s="17"/>
+      <c r="O733" s="16"/>
     </row>
     <row r="734" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O734" s="17"/>
+      <c r="O734" s="16"/>
     </row>
     <row r="735" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O735" s="17"/>
+      <c r="O735" s="16"/>
     </row>
     <row r="736" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O736" s="17"/>
+      <c r="O736" s="16"/>
     </row>
     <row r="737" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O737" s="17"/>
+      <c r="O737" s="16"/>
     </row>
     <row r="738" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O738" s="17"/>
+      <c r="O738" s="16"/>
     </row>
     <row r="739" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O739" s="17"/>
+      <c r="O739" s="16"/>
     </row>
     <row r="740" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O740" s="17"/>
+      <c r="O740" s="16"/>
     </row>
     <row r="741" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O741" s="17"/>
+      <c r="O741" s="16"/>
     </row>
     <row r="742" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O742" s="17"/>
+      <c r="O742" s="16"/>
     </row>
     <row r="743" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O743" s="17"/>
+      <c r="O743" s="16"/>
     </row>
     <row r="744" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O744" s="17"/>
+      <c r="O744" s="16"/>
     </row>
     <row r="745" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O745" s="17"/>
+      <c r="O745" s="16"/>
     </row>
     <row r="746" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O746" s="17"/>
+      <c r="O746" s="16"/>
     </row>
     <row r="747" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O747" s="17"/>
+      <c r="O747" s="16"/>
     </row>
     <row r="748" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O748" s="17"/>
+      <c r="O748" s="16"/>
     </row>
     <row r="749" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O749" s="17"/>
+      <c r="O749" s="16"/>
     </row>
     <row r="750" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O750" s="17"/>
+      <c r="O750" s="16"/>
     </row>
     <row r="751" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O751" s="17"/>
+      <c r="O751" s="16"/>
     </row>
     <row r="752" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O752" s="17"/>
+      <c r="O752" s="16"/>
     </row>
     <row r="753" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O753" s="17"/>
+      <c r="O753" s="16"/>
     </row>
     <row r="754" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O754" s="17"/>
+      <c r="O754" s="16"/>
     </row>
     <row r="755" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O755" s="17"/>
+      <c r="O755" s="16"/>
     </row>
     <row r="756" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O756" s="17"/>
+      <c r="O756" s="16"/>
     </row>
     <row r="757" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O757" s="17"/>
+      <c r="O757" s="16"/>
     </row>
     <row r="758" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O758" s="17"/>
+      <c r="O758" s="16"/>
     </row>
     <row r="759" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O759" s="17"/>
+      <c r="O759" s="16"/>
     </row>
     <row r="760" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O760" s="17"/>
+      <c r="O760" s="16"/>
     </row>
     <row r="761" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O761" s="17"/>
+      <c r="O761" s="16"/>
     </row>
     <row r="762" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O762" s="17"/>
+      <c r="O762" s="16"/>
     </row>
     <row r="763" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O763" s="17"/>
+      <c r="O763" s="16"/>
     </row>
     <row r="764" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O764" s="17"/>
+      <c r="O764" s="16"/>
     </row>
     <row r="765" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O765" s="17"/>
+      <c r="O765" s="16"/>
     </row>
     <row r="766" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O766" s="17"/>
+      <c r="O766" s="16"/>
     </row>
     <row r="767" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O767" s="17"/>
+      <c r="O767" s="16"/>
     </row>
     <row r="768" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O768" s="17"/>
+      <c r="O768" s="16"/>
     </row>
     <row r="769" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O769" s="17"/>
+      <c r="O769" s="16"/>
     </row>
     <row r="770" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O770" s="17"/>
+      <c r="O770" s="16"/>
     </row>
     <row r="771" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O771" s="17"/>
+      <c r="O771" s="16"/>
     </row>
     <row r="772" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O772" s="17"/>
+      <c r="O772" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
